--- a/10v15/12/USQ-Cup/RPI_UVA.xlsx
+++ b/10v15/12/USQ-Cup/RPI_UVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\12\USQ-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF301A-4513-4E94-89F4-6FAD50C32DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C949076F-3CFA-492E-B34E-439EFD77A827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>A</t>
   </si>
@@ -178,6 +178,138 @@
   </si>
   <si>
     <t>VANESSA KEATING</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>0342</t>
+  </si>
+  <si>
+    <t>0438</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>0535</t>
+  </si>
+  <si>
+    <t>0653</t>
+  </si>
+  <si>
+    <t>0726</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>0847</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>0929</t>
+  </si>
+  <si>
+    <t>0957</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>1858</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2135</t>
+  </si>
+  <si>
+    <t>2152</t>
+  </si>
+  <si>
+    <t>2204</t>
   </si>
 </sst>
 </file>
@@ -461,7 +593,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -469,20 +609,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,8 +836,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="72" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -733,21 +865,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -760,38 +892,38 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="22">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")</f>
         <v>8</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="23" t="str">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="24" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="14" t="str">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="25" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>110*</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -801,25 +933,25 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -829,40 +961,40 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="22" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="22">
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="23" t="str">
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="24" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="14" t="str">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="25" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>90</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="16"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -872,25 +1004,25 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -936,27 +1068,37 @@
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1053,32 +1195,44 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1183,32 +1337,44 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1227,12 +1393,14 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="9" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E14" s="10">
+        <v>73</v>
+      </c>
+      <c r="F14" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="11"/>
       <c r="G14" s="9" t="s">
         <v>6</v>
       </c>
@@ -1311,32 +1479,44 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1378,7 +1558,7 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17" s="10">
         <v>21</v>
@@ -1433,34 +1613,46 @@
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1565,34 +1757,46 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="M22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1695,32 +1899,46 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="I25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -1819,12 +2037,16 @@
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="4" t="s">
         <v>0</v>
@@ -29232,6 +29454,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29241,13 +29470,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29267,7 +29489,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
